--- a/Semester 5/DAN/Experiments/EXP1/EXP1.xlsx
+++ b/Semester 5/DAN/Experiments/EXP1/EXP1.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaan\Semester 5\DAN\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSBTE-CO-K\Semester 5\DAN\Experiments\EXP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870715A-BD3B-4488-A58C-1FB711D35D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C273C896-3ED5-4829-9DCD-6C3237EDF439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{42BE7181-D838-4D36-86E7-BEB48B6031C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{42BE7181-D838-4D36-86E7-BEB48B6031C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical" sheetId="1" r:id="rId1"/>
     <sheet name="Practical Related Questions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -214,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,22 +233,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -256,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9D4E2E-E201-4D05-A093-D405F70C68F6}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,224 +816,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB457341-5941-463C-A37D-F4299B7474D0}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="B2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H3" s="3">
         <v>25</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M3" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D4" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H4" s="3">
         <v>30</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L4">
         <v>15</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M4" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D5" s="3">
         <v>12</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H5" s="3">
         <v>35</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M5" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D6" s="3">
         <v>14</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H6" s="3">
         <v>40</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L6">
         <v>100</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D7" s="3">
         <v>18</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H7" s="3">
         <v>45</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L7">
         <v>56</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
-        <f>MEDIAN(C2:C6)</f>
+      <c r="D8" s="4">
+        <f>MEDIAN(D3:D7)</f>
         <v>12</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
-        <f>MAX(G2:G6)-MIN(G2:G6)</f>
+      <c r="H8" s="4">
+        <f>MAX(H3:H7)-MIN(H3:H7)</f>
         <v>20</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5">
-        <f>CORREL(K2:K6,L2:L6)</f>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4">
+        <f>CORREL(L3:L7,M3:M7)</f>
         <v>-0.5491200048890329</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="E1:E8"/>
-    <mergeCell ref="I1:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="J2:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
